--- a/biology/Histoire de la zoologie et de la botanique/Eduard_Reimoser/Eduard_Reimoser.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eduard_Reimoser/Eduard_Reimoser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eduard Reimoser, né le 29 décembre 1864 à Feldsberg en Moravie et mort le 8 janvier 1940 à Vienne, est un arachnologiste autrichien qui s'est particulièrement consacré à la taxonomie des araignées d'Europe centrale et orientale (notamment des régions danubiennes), ainsi qu'à celles d'Égypte et du Soudan et de l'Amérique du Sud. Il a effectué nombre d'expéditions scientifiques dans les régions sus-mentionnées, même à un âge avancé. Il part ainsi avec d'autres naturalistes autrichiens pour le Costa Rica en 1930.
 Il a décrit de nouvelle espèces et de nouveaux genres, comme Bristowia, et a accumulé au fil des ans une vaste collection d'araignées, mais aussi de coléoptères, qui a été acquise par le Muséum d'histoire naturelle de Vienne, institution avec laquelle il a collaboré de 1925 à sa mort.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir reçu son habilitation, Reimoser devient d'abord enseignant dans des écoles moyennes (cycle court du secondaire), puis inspecteur d'écoles secondaires de district, fonction qu'il conserve jusqu'en 1925, année de sa retraite.
 Il s'intéresse aux araignées au début de sa carrière qu'il observe in situ, commençant à les collectionner. Il recueille d'abord des spécimens qu'il trouve en Autriche et dans les provinces de l'Autriche-Hongrie, puis il voyage en Afrique de l'Est, au Moyen-Orient, aux îles de la Sonde et en Amérique du Sud (1907-1908).
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Echte Spinnen aus Mesopotamien, Annal. Nat. Mus. Wien, Vienne, 1913
 Die Spinnengattung Micrathena, Verhandlg. zool. bot. Ges. Wien, Vienne, 1917
@@ -603,7 +619,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Plusieurs espèces lui sont dédiées:
 (Araneidae) Anepsion reimoseri Chrysanthus, 1961
